--- a/data/long_bre/P24_3-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_3-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,7 +631,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -609,27 +641,47 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-7,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>181,87%</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-30,52%</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>170,86%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-53,06%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-22,33%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-22,97%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 17,34</t>
+          <t>2,27; 18,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 5,24</t>
+          <t>-22,36; 0,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 5,8</t>
+          <t>-6,29; 6,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,63; 747,07</t>
+          <t>-15,13; 7,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-78,0; 100,0</t>
+          <t>-25,97; 12,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 283,59</t>
+          <t>22,32; 785,71</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-89,53; 25,55</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-70,54; 214,08</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-74,69; 135,28</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-80,82; 151,09</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,68</t>
+          <t>-8,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,78%</t>
+          <t>-6,1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>-9,95%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-7,95%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12,69%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 0,2</t>
+          <t>-18,7; -0,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 9,56</t>
+          <t>-11,3; 15,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 11,73</t>
+          <t>-7,19; 13,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 0,15</t>
+          <t>-20,94; 9,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 12,31</t>
+          <t>-13,35; 30,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 14,97</t>
+          <t>-20,59; -0,08</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-12,73; 21,73</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-7,93; 17,59</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-25,28; 14,51</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-19,21; 66,75</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,57%</t>
+          <t>9,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,2%</t>
+          <t>-5,56%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>160,93%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-25,73%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>91,45%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-12,97%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 5,71</t>
+          <t>-6,36; 5,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 12,21</t>
+          <t>-0,38; 14,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 5,29</t>
+          <t>-11,41; 5,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-73,14; 193,65</t>
+          <t>-3,94; 21,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,3; 619,82</t>
+          <t>-19,99; 13,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,24; 111,5</t>
+          <t>-71,61; 200,77</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-29,54; 1018,32</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-71,05; 96,32</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-38,65; 471,53</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-63,49; 117,68</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>156,04%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-19,09%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 11,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 6,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 8,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 848,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,12; 109,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,04; 125,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,15%</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,07%</t>
+          <t>152,2%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-16,35%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,74%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-23,36%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-5,9%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 9,35</t>
+          <t>-0,05; 12,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 10,65</t>
+          <t>-9,71; 5,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 6,86</t>
+          <t>-6,35; 8,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 12,66</t>
+          <t>-7,31; 3,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 14,85</t>
+          <t>-14,01; 11,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 8,87</t>
+          <t>-20,11; 621,69</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-66,78; 84,66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-44,08; 124,67</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-81,75; 235,41</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-64,77; 231,87</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-22,78%</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>36,35%</t>
+          <t>-2,99%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-1,55%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-3,03%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-2,33%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 6,51</t>
+          <t>-12,94; 10,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 12,18</t>
+          <t>-11,55; 10,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 6,0</t>
+          <t>-11,62; 5,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-65,3; 69,61</t>
+          <t>-10,56; 13,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,02; 211,79</t>
+          <t>-17,14; 15,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,24; 403,26</t>
+          <t>-14,99; 14,92</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-14,01; 13,73</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-13,19; 6,91</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-11,84; 17,63</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-19,66; 24,1</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,54</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-40,03%</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>-25,25%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>31,79%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>33,49%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>31,41%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 6,47</t>
+          <t>-16,14; 4,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 0,95</t>
+          <t>-5,17; 12,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 6,65</t>
+          <t>-3,59; 6,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-52,67; 102,23</t>
+          <t>-10,75; 9,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-68,44; 13,92</t>
+          <t>-8,81; 12,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-38,6; 93,42</t>
+          <t>-68,09; 56,93</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-41,01; 218,42</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-53,82; 334,96</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-54,28; 119,75</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-60,86; 560,33</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 22,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 16,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 8,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 36,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 24,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 10,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-6,07</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-38,33%</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-22,86%</t>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-30,67%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>19,25%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>21,03%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>153,53%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 1,22</t>
+          <t>-6,54; 6,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 6,31</t>
+          <t>-15,4; 2,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 2,96</t>
+          <t>-4,17; 7,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-78,03; 12,98</t>
+          <t>-5,27; 8,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 142,64</t>
+          <t>0,87; 16,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-59,44; 55,04</t>
+          <t>-46,69; 113,54</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-64,07; 28,2</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-32,35; 105,54</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-33,26; 110,46</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 660,71</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-21,88%</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-27,72%</t>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 10,25</t>
+          <t>-7,01; 10,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 3,71</t>
+          <t>-5,72; 14,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 1,76</t>
+          <t>-6,37; 8,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,95; 143,71</t>
+          <t>-7,62; 13,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-70,28; 55,67</t>
+          <t>-8,68; 15,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-54,87; 14,3</t>
+          <t>-8,66; 14,27</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 20,84</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-7,63; 11,22</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-9,95; 22,26</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-11,35; 25,13</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,6%</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>-12,19</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>-16,38%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>13,83%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-24,05%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-23,59%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-52,45%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 1,75</t>
+          <t>-8,35; 4,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 14,32</t>
+          <t>-5,2; 6,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 13,08</t>
+          <t>-7,41; 2,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 2,19</t>
+          <t>-13,39; 5,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 21,01</t>
+          <t>-23,41; -0,76</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 20,48</t>
+          <t>-52,65; 55,58</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-48,07; 136,62</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-59,09; 46,65</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-55,46; 35,63</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-76,5; 0,35</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-11,94%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-8,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1978,114 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 7,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 5,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 4,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 100,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,61; 46,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-45,0; 46,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>-11,76</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-23,94%</t>
+          <t>43,06%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-20,23%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-28,65%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-2,63%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-51,04%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +2098,52 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 5,32</t>
+          <t>-1,61; 10,37</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 8,02</t>
+          <t>-14,66; 3,81</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 2,77</t>
+          <t>-10,72; 2,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-61,4; 173,98</t>
+          <t>-7,83; 5,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-50,07; 136,22</t>
+          <t>-26,11; -0,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-56,92; 22,57</t>
+          <t>-14,06; 145,1</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-73,65; 57,76</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-55,02; 16,59</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-50,37; 80,24</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-77,14; 3,65</t>
         </is>
       </c>
     </row>
@@ -1603,37 +2151,57 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-4,84%</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>-7,82%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-1,69%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +2214,52 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 4,24</t>
+          <t>-13,99; 2,06</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 12,04</t>
+          <t>-5,16; 15,54</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 11,56</t>
+          <t>-3,33; 13,69</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 5,29</t>
+          <t>-10,73; 8,18</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 17,14</t>
+          <t>-11,09; 19,22</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 18,89</t>
+          <t>-16,76; 2,81</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 22,99</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; 21,08</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-13,94; 11,86</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-16,47; 40,08</t>
         </is>
       </c>
     </row>
@@ -1679,37 +2267,57 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>37,67%</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-28,19%</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>17,52%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-11,47%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-7,22%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>39,36%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2330,110 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 11,85</t>
+          <t>-4,5; 7,93</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 4,42</t>
+          <t>-8,93; 5,48</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 11,57</t>
+          <t>-7,37; 5,59</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 161,14</t>
+          <t>-5,75; 8,61</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-62,61; 47,93</t>
+          <t>-3,6; 19,66</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 85,33</t>
+          <t>-33,29; 104,19</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-46,71; 44,01</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-41,05; 58,71</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-31,93; 78,06</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-16,09; 131,57</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>80,14%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-23,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2446,114 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 7,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 18,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 4,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-42,6; 120,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 279,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-59,24; 30,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-9,93</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-17,72</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-13,16%</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-23,22%</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-22,96%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>-0,62%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>-10,27%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2566,52 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 0,42</t>
+          <t>-5,13; 5,09</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-29,8; -4,28</t>
+          <t>-6,16; 8,8</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 9,98</t>
+          <t>-11,29; 2,97</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 0,62</t>
+          <t>-8,6; 8,72</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-36,85; -6,02</t>
+          <t>-14,05; 9,41</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 17,65</t>
+          <t>-64,25; 159,13</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-49,09; 145,85</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-54,35; 23,9</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-51,92; 93,61</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>-48,59; 65,69</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2619,57 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>6,82</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>61,08%</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>70,45%</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>45,49%</t>
+          <t>-4,59%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>3,86%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-3,65%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>-1,57%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2682,110 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 18,26</t>
+          <t>-12,91; 3,98</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 19,25</t>
+          <t>-8,6; 12,3</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 15,4</t>
+          <t>-8,79; 11,53</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 177,47</t>
+          <t>-14,35; 10,27</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 224,64</t>
+          <t>-14,04; 15,01</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 134,92</t>
+          <t>-15,0; 5,0</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-10,61; 18,31</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-12,8; 18,99</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-19,65; 16,4</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>-23,41; 33,2</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>-3,89%</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>33,65%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>-24,74%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>13,89%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>13,54%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2798,52 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,82</t>
+          <t>-2,8; 11,39</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 3,07</t>
+          <t>-11,91; 3,55</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 1,68</t>
+          <t>-5,31; 11,93</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>5,56; 90,59</t>
+          <t>-8,74; 12,1</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 34,21</t>
+          <t>-9,46; 14,79</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 14,31</t>
+          <t>-21,99; 150,5</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-60,53; 32,8</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-25,31; 81,65</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-35,59; 85,55</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>-31,23; 90,07</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2851,57 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-5,32%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2914,114 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 0,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 2,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 0,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 3,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 5,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>16,22%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>74,01%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>-15,15%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>-14,41%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>-0,66%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +3034,890 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 4,63</t>
+          <t>-5,5; 8,78</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 5,4</t>
+          <t>-0,5; 19,13</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 4,1</t>
+          <t>-11,82; 6,69</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 45,35</t>
+          <t>-12,5; 7,86</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 56,74</t>
+          <t>-11,03; 11,36</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 39,79</t>
+          <t>-39,69; 128,88</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-11,59; 275,97</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-48,87; 52,88</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>-60,2; 84,5</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>-74,05; 220,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-10,63</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-17,75</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-3,8</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-3,42</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-8,57</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-14,12%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-23,51%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-5,81%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>-5,6%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>-13,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-21,6; 0,35</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-30,15; -6,17</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-15,5; 8,58</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-17,88; 12,57</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-25,66; 10,8</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-26,87; 0,49</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-37,71; -9,17</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-21,87; 14,14</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>-25,79; 26,25</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>-38,71; 19,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>9,0</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>9,52</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>6,59</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>5,54</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>8,64</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>61,2%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>71,29%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>40,93%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>22,84%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>33,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 18,95</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 19,36</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-2,06; 15,77</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; 19,9</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-8,23; 26,7</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 180,07</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 215,03</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-11,51; 124,45</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>-26,28; 117,16</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>-23,89; 149,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-1,66</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>45,23%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>-5,91%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>-7,37%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>-1,41%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>-11,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 6,23</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 3,02</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 1,88</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 3,18</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-7,28; 3,32</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>8,46; 97,67</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-31,25; 30,44</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-26,13; 17,18</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>-27,37; 35,22</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>-38,55; 27,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-5,4</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-2,52</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-6,71%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-2,66%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-0,43%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>-3,5%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-9,62; -1,2</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 2,69</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 3,45</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-7,88; 2,65</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-7,69; 6,93</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-11,7; -1,61</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-8,46; 3,65</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; 4,8</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>-10,57; 3,75</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>-11,15; 11,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>15,85%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>24,78%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>16,01%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 5,1</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 6,15</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 4,39</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 7,15</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 7,4</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-11,6; 49,58</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 67,04</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-13,32; 43,7</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>-10,06; 48,97</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>-18,77; 42,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_3-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_3-Edad-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1446,7 +1446,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1792,7 +1792,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1906,7 +1906,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2138,7 +2138,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2252,7 +2252,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2484,7 +2484,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2598,7 +2598,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2830,7 +2830,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2944,7 +2944,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
